--- a/ドキュメント類/WBS.xlsx
+++ b/ドキュメント類/WBS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kinno\git\2020_application_repoitory\ドキュメント類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1C32A0-5E5C-4897-AA77-E2510C8F8A81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C426EF-EC78-4F61-B6F9-C0F180244B10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{6620E8FF-7818-497E-8C3B-6141110BEB34}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="78">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -375,6 +375,212 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>コンキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル設計書の作成</t>
+    <rPh sb="4" eb="7">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移図の作成</t>
+    <rPh sb="0" eb="5">
+      <t>ガメンセンイズ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル作成</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CloudSQL環境構築</t>
+    <rPh sb="8" eb="12">
+      <t>カンキョウコウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>API開発</t>
+    <rPh sb="3" eb="5">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>API設計</t>
+    <rPh sb="3" eb="5">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラーメン提案機能</t>
+    <rPh sb="4" eb="8">
+      <t>テイアンキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面設計</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面開発</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンカイハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>32.00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスタメンテナンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境構築</t>
+    <rPh sb="0" eb="4">
+      <t>カンキョウコウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GCP設定</t>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト作成</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GAE環境構築</t>
+    <rPh sb="3" eb="7">
+      <t>カンキョウコウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GCS環境構築</t>
+    <rPh sb="3" eb="7">
+      <t>カンキョウコウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FirebaseAuthentication環境構築</t>
+    <rPh sb="22" eb="26">
+      <t>カンキョウコウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FirebaseHosting環境構築</t>
+    <rPh sb="15" eb="19">
+      <t>カンキョウコウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Java環境構築</t>
+    <rPh sb="4" eb="8">
+      <t>カンキョウコウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Angular環境構築</t>
+    <rPh sb="7" eb="11">
+      <t>カンキョウコウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SpreadSheet構築</t>
+    <rPh sb="11" eb="13">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ComputeEngine環境構築</t>
+    <rPh sb="13" eb="17">
+      <t>カンキョウコウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MySQL on ComputeEngine環境構築</t>
+    <rPh sb="22" eb="26">
+      <t>カンキョウコウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>廃止</t>
+    <rPh sb="0" eb="2">
+      <t>ハイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>API設計書の作成</t>
+    <rPh sb="3" eb="6">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面基本設計書の作成</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンキホン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -856,10 +1062,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AC11E5-6E04-4F47-BC6F-444A443C0651}">
-  <dimension ref="B1:K50"/>
+  <dimension ref="B1:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1011,9 +1220,11 @@
       <c r="H6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="8"/>
+      <c r="I6" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="J6" s="9">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>31</v>
@@ -1039,9 +1250,11 @@
       <c r="H7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="8"/>
+      <c r="I7" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="J7" s="9">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="K7" s="2"/>
     </row>
@@ -1063,9 +1276,11 @@
       <c r="H8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="8"/>
+      <c r="I8" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="J8" s="9">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="K8" s="2"/>
     </row>
@@ -1139,9 +1354,11 @@
       <c r="H12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="8"/>
+      <c r="I12" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="J12" s="9">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="K12" s="2"/>
     </row>
@@ -1187,9 +1404,11 @@
       <c r="H14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="8"/>
+      <c r="I14" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="J14" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K14" s="2"/>
     </row>
@@ -1259,9 +1478,11 @@
       <c r="H17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="8"/>
+      <c r="I17" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="J17" s="9">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="K17" s="2"/>
     </row>
@@ -1309,9 +1530,11 @@
       <c r="H19" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="8"/>
+      <c r="I19" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="J19" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="2"/>
     </row>
@@ -1328,14 +1551,16 @@
         <v>43891</v>
       </c>
       <c r="G20" s="5">
-        <v>43896</v>
+        <v>43910</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="8"/>
+      <c r="I20" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="J20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>48</v>
@@ -1344,51 +1569,95 @@
     <row r="21" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="5">
+        <v>43910</v>
+      </c>
+      <c r="G21" s="5">
+        <v>43917</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="9">
+        <v>1</v>
+      </c>
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="8"/>
+      <c r="D22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="5">
+        <v>43917</v>
+      </c>
+      <c r="G22" s="5">
+        <v>43925</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="I22" s="8"/>
-      <c r="J22" s="2"/>
+      <c r="J22" s="9">
+        <v>1</v>
+      </c>
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="8"/>
+      <c r="D23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="5">
+        <v>43935</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="I23" s="8"/>
-      <c r="J23" s="2"/>
+      <c r="J23" s="9">
+        <v>0.2</v>
+      </c>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="8"/>
+      <c r="D24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="5">
+        <v>43949</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="I24" s="8"/>
-      <c r="J24" s="2"/>
+      <c r="J24" s="9">
+        <v>0.05</v>
+      </c>
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
@@ -1396,45 +1665,83 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="5">
+        <v>43929</v>
+      </c>
+      <c r="G26" s="5">
+        <v>43929</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="9">
+        <v>1</v>
+      </c>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="5">
+        <v>43930</v>
+      </c>
+      <c r="G27" s="5">
+        <v>43936</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="9">
+        <v>1</v>
+      </c>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="8"/>
+      <c r="D28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="I28" s="8"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -1442,61 +1749,117 @@
     <row r="29" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="30" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="5">
+        <v>43937</v>
+      </c>
+      <c r="G30" s="5">
+        <v>43937</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="9">
+        <v>1</v>
+      </c>
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="5">
+        <v>43937</v>
+      </c>
+      <c r="G31" s="5">
+        <v>43948</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J31" s="9">
+        <v>1</v>
+      </c>
       <c r="K31" s="2"/>
     </row>
     <row r="32" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="8"/>
+      <c r="D32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="I32" s="8"/>
-      <c r="J32" s="2"/>
+      <c r="J32" s="9"/>
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="8"/>
+      <c r="D33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="I33" s="8"/>
-      <c r="J33" s="2"/>
+      <c r="J33" s="9"/>
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
@@ -1504,102 +1867,170 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
-      <c r="J34" s="2"/>
+      <c r="J34" s="9"/>
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="8"/>
+      <c r="B35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="5">
+        <v>43949</v>
+      </c>
+      <c r="G35" s="5">
+        <v>43949</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="I35" s="8"/>
-      <c r="J35" s="2"/>
+      <c r="J35" s="9"/>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="5">
+        <v>43930</v>
+      </c>
+      <c r="G36" s="5">
+        <v>43935</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" s="9">
+        <v>0.6</v>
+      </c>
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="8"/>
+      <c r="H37" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="I37" s="8"/>
-      <c r="J37" s="2"/>
+      <c r="J37" s="9"/>
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="8"/>
+      <c r="H38" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="I38" s="8"/>
-      <c r="J38" s="2"/>
+      <c r="J38" s="9"/>
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="8"/>
+      <c r="H39" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="I39" s="8"/>
-      <c r="J39" s="2"/>
+      <c r="J39" s="9"/>
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="D40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="8"/>
+      <c r="H40" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="I40" s="8"/>
-      <c r="J40" s="2"/>
+      <c r="J40" s="9"/>
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="8"/>
+      <c r="H41" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="I41" s="8"/>
-      <c r="J41" s="2"/>
+      <c r="J41" s="9"/>
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="8"/>
@@ -1610,8 +2041,12 @@
     <row r="43" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="8"/>
@@ -1622,8 +2057,12 @@
     <row r="44" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="8"/>
@@ -1703,6 +2142,174 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
+    <row r="51" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+    </row>
+    <row r="63" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="H2:I2"/>

--- a/ドキュメント類/WBS.xlsx
+++ b/ドキュメント類/WBS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kinno\git\2020_application_repoitory\ドキュメント類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD28FC7-1754-4EBE-A14C-AA2E837D77C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AAB18E-B113-4A5D-96EA-DE55EC9A29D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{6620E8FF-7818-497E-8C3B-6141110BEB34}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="78">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -582,10 +582,6 @@
     <rPh sb="8" eb="10">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0.25</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1072,7 +1068,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
+      <selection pane="bottomRight" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1839,13 +1835,21 @@
       <c r="E32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
+      <c r="F32" s="5">
+        <v>43971</v>
+      </c>
+      <c r="G32" s="5">
+        <v>43992</v>
+      </c>
       <c r="H32" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I32" s="8"/>
-      <c r="J32" s="9"/>
+      <c r="I32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" s="9">
+        <v>1</v>
+      </c>
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
@@ -1857,13 +1861,21 @@
       <c r="E33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+      <c r="F33" s="5">
+        <v>43971</v>
+      </c>
+      <c r="G33" s="5">
+        <v>43971</v>
+      </c>
       <c r="H33" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I33" s="8"/>
-      <c r="J33" s="9"/>
+      <c r="I33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="9">
+        <v>1</v>
+      </c>
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
@@ -1900,8 +1912,12 @@
       <c r="H35" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I35" s="8"/>
-      <c r="J35" s="9"/>
+      <c r="I35" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" s="9">
+        <v>0.9</v>
+      </c>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
@@ -1944,15 +1960,17 @@
       <c r="F37" s="5">
         <v>43967</v>
       </c>
-      <c r="G37" s="2"/>
+      <c r="G37" s="5">
+        <v>43983</v>
+      </c>
       <c r="H37" s="8" t="s">
         <v>41</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="J37" s="9">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="K37" s="2"/>
     </row>
@@ -1970,14 +1988,18 @@
       <c r="F38" s="5">
         <v>43952</v>
       </c>
-      <c r="G38" s="2"/>
+      <c r="G38" s="5">
+        <v>43998</v>
+      </c>
       <c r="H38" s="8" t="s">
         <v>36</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J38" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="J38" s="9">
+        <v>1</v>
+      </c>
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
@@ -1989,13 +2011,19 @@
       <c r="E39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="2"/>
+      <c r="F39" s="5">
+        <v>43971</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="H39" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I39" s="8"/>
-      <c r="J39" s="9"/>
+      <c r="I39" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J39" s="9">
+        <v>0.4</v>
+      </c>
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
@@ -2033,13 +2061,21 @@
       <c r="E41" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
+      <c r="F41" s="5">
+        <v>43971</v>
+      </c>
+      <c r="G41" s="5">
+        <v>43998</v>
+      </c>
       <c r="H41" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I41" s="8"/>
-      <c r="J41" s="9"/>
+      <c r="I41" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J41" s="9">
+        <v>1</v>
+      </c>
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
@@ -2057,7 +2093,9 @@
       <c r="G42" s="2"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
-      <c r="J42" s="2"/>
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
@@ -2073,7 +2111,9 @@
       <c r="G43" s="2"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
-      <c r="J43" s="2"/>
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
       <c r="K43" s="2"/>
     </row>
     <row r="44" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
@@ -2089,7 +2129,9 @@
       <c r="G44" s="2"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="2"/>
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
       <c r="K44" s="2"/>
     </row>
     <row r="45" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">

--- a/ドキュメント類/WBS.xlsx
+++ b/ドキュメント類/WBS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kinno\git\2020_application_repoitory\ドキュメント類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AAB18E-B113-4A5D-96EA-DE55EC9A29D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A62883A-11FE-44E1-A28E-F62A8C598C9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{6620E8FF-7818-497E-8C3B-6141110BEB34}"/>
   </bookViews>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="79">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -582,6 +576,10 @@
     <rPh sb="8" eb="10">
       <t>サクセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データインポート</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1062,13 +1060,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AC11E5-6E04-4F47-BC6F-444A443C0651}">
-  <dimension ref="B1:K64"/>
+  <dimension ref="B1:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J34" sqref="J34"/>
+      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1330,9 +1328,11 @@
       <c r="H11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="8"/>
+      <c r="I11" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J11" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="2"/>
     </row>
@@ -1358,7 +1358,7 @@
         <v>41</v>
       </c>
       <c r="J12" s="9">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="K12" s="2"/>
     </row>
@@ -1380,9 +1380,11 @@
       <c r="H13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="8"/>
+      <c r="I13" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="J13" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="2"/>
     </row>
@@ -1408,7 +1410,7 @@
         <v>25</v>
       </c>
       <c r="J14" s="9">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="K14" s="2"/>
     </row>
@@ -1430,9 +1432,11 @@
       <c r="H15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="8"/>
+      <c r="I15" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="J15" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="2"/>
     </row>
@@ -1445,20 +1449,24 @@
       <c r="E16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="5">
-        <v>43862</v>
-      </c>
-      <c r="G16" s="5">
-        <v>43889</v>
+      <c r="F16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="8"/>
+      <c r="I16" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="J16" s="9">
         <v>0</v>
       </c>
-      <c r="K16" s="2"/>
+      <c r="K16" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="17" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="2"/>
@@ -1482,7 +1490,7 @@
         <v>22</v>
       </c>
       <c r="J17" s="9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K17" s="2"/>
     </row>
@@ -1504,9 +1512,11 @@
       <c r="H18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="8"/>
+      <c r="I18" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="J18" s="9">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="K18" s="2"/>
     </row>
@@ -1610,7 +1620,9 @@
       <c r="H22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="8"/>
+      <c r="I22" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="J22" s="9">
         <v>1</v>
       </c>
@@ -1628,13 +1640,17 @@
       <c r="F23" s="5">
         <v>43935</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="5">
+        <v>43961</v>
+      </c>
       <c r="H23" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="8"/>
+      <c r="I23" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="J23" s="9">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="K23" s="2"/>
     </row>
@@ -1654,7 +1670,9 @@
       <c r="H24" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="8"/>
+      <c r="I24" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="J24" s="9">
         <v>0.05</v>
       </c>
@@ -1916,32 +1934,30 @@
         <v>25</v>
       </c>
       <c r="J35" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="2"/>
-      <c r="C36" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F36" s="5">
-        <v>43930</v>
+        <v>43949</v>
       </c>
       <c r="G36" s="5">
-        <v>43935</v>
+        <v>44069</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J36" s="9">
         <v>1</v>
@@ -1951,51 +1967,37 @@
     <row r="37" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" s="5">
-        <v>43967</v>
-      </c>
-      <c r="G37" s="5">
-        <v>43983</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J37" s="9">
-        <v>1</v>
-      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="9"/>
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F38" s="5">
-        <v>43952</v>
+        <v>43930</v>
       </c>
       <c r="G38" s="5">
-        <v>43998</v>
+        <v>43935</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J38" s="9">
         <v>1</v>
@@ -2006,46 +2008,50 @@
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F39" s="5">
-        <v>43971</v>
-      </c>
-      <c r="G39" s="2"/>
+        <v>43967</v>
+      </c>
+      <c r="G39" s="5">
+        <v>43983</v>
+      </c>
       <c r="H39" s="8" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J39" s="9">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="D40" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F40" s="5">
-        <v>43963</v>
+        <v>43952</v>
       </c>
       <c r="G40" s="5">
-        <v>43970</v>
+        <v>43998</v>
       </c>
       <c r="H40" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I40" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="J40" s="9">
         <v>1</v>
@@ -2056,7 +2062,7 @@
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>19</v>
@@ -2064,37 +2070,41 @@
       <c r="F41" s="5">
         <v>43971</v>
       </c>
-      <c r="G41" s="5">
-        <v>43998</v>
-      </c>
+      <c r="G41" s="2"/>
       <c r="H41" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I41" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I41" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="J41" s="9">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="2"/>
-      <c r="C42" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="2">
-        <v>0</v>
+      <c r="F42" s="5">
+        <v>43963</v>
+      </c>
+      <c r="G42" s="5">
+        <v>43970</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J42" s="9">
+        <v>1</v>
       </c>
       <c r="K42" s="2"/>
     </row>
@@ -2102,25 +2112,35 @@
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="2">
-        <v>0</v>
+      <c r="F43" s="5">
+        <v>43971</v>
+      </c>
+      <c r="G43" s="5">
+        <v>43998</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J43" s="9">
+        <v>1</v>
       </c>
       <c r="K43" s="2"/>
     </row>
     <row r="44" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="D44" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>19</v>
@@ -2137,25 +2157,37 @@
     <row r="45" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
-      <c r="J45" s="2"/>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
-      <c r="J46" s="2"/>
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
@@ -2374,6 +2406,30 @@
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
     </row>
+    <row r="65" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+    </row>
+    <row r="66" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="H2:I2"/>

--- a/ドキュメント類/WBS.xlsx
+++ b/ドキュメント類/WBS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kinno\git\2020_application_repoitory\ドキュメント類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A62883A-11FE-44E1-A28E-F62A8C598C9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934B53FC-800B-4E00-B8E9-5A000A594FD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{6620E8FF-7818-497E-8C3B-6141110BEB34}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="79">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -556,16 +556,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>API設計書の作成</t>
-    <rPh sb="3" eb="6">
-      <t>セッケイショ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面基本設計書の作成</t>
     <rPh sb="0" eb="4">
       <t>ガメンキホン</t>
@@ -580,6 +570,10 @@
   </si>
   <si>
     <t>データインポート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>26.00</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1060,13 +1054,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AC11E5-6E04-4F47-BC6F-444A443C0651}">
-  <dimension ref="B1:K66"/>
+  <dimension ref="B1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1632,7 +1626,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>19</v>
@@ -1657,63 +1651,65 @@
     <row r="24" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="5">
-        <v>43949</v>
-      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="5">
+        <v>43929</v>
+      </c>
+      <c r="G25" s="5">
+        <v>43929</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" s="9">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="5">
+        <v>43930</v>
+      </c>
+      <c r="G26" s="5">
+        <v>43936</v>
+      </c>
+      <c r="H26" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="5">
-        <v>43929</v>
-      </c>
-      <c r="G26" s="5">
-        <v>43929</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="I26" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J26" s="9">
         <v>1</v>
@@ -1724,79 +1720,79 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="5">
-        <v>43930</v>
-      </c>
-      <c r="G27" s="5">
-        <v>43936</v>
-      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
       <c r="H27" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" s="9">
-        <v>1</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="H28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="29" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>74</v>
+      <c r="F29" s="5">
+        <v>43937</v>
+      </c>
+      <c r="G29" s="5">
+        <v>43937</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="J29" s="9">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2"/>
     </row>
     <row r="30" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>19</v>
@@ -1805,13 +1801,13 @@
         <v>43937</v>
       </c>
       <c r="G30" s="5">
-        <v>43937</v>
+        <v>43948</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="J30" s="9">
         <v>1</v>
@@ -1822,22 +1818,22 @@
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F31" s="5">
-        <v>43937</v>
+        <v>43971</v>
       </c>
       <c r="G31" s="5">
-        <v>43948</v>
+        <v>43992</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="J31" s="9">
         <v>1</v>
@@ -1848,7 +1844,7 @@
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>19</v>
@@ -1857,7 +1853,7 @@
         <v>43971</v>
       </c>
       <c r="G32" s="5">
-        <v>43992</v>
+        <v>43971</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>22</v>
@@ -1873,50 +1869,50 @@
     <row r="33" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="5">
-        <v>43971</v>
-      </c>
-      <c r="G33" s="5">
-        <v>43971</v>
-      </c>
-      <c r="H33" s="8" t="s">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="5">
+        <v>43949</v>
+      </c>
+      <c r="G34" s="5">
+        <v>43949</v>
+      </c>
+      <c r="H34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="I34" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J33" s="9">
-        <v>1</v>
-      </c>
-      <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="9"/>
+      <c r="J34" s="9">
+        <v>1</v>
+      </c>
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>19</v>
@@ -1925,13 +1921,13 @@
         <v>43949</v>
       </c>
       <c r="G35" s="5">
-        <v>43949</v>
+        <v>44069</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J35" s="9">
         <v>1</v>
@@ -1941,63 +1937,63 @@
     <row r="36" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="5">
-        <v>43949</v>
-      </c>
-      <c r="G36" s="5">
-        <v>44069</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J36" s="9">
-        <v>1</v>
-      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="9"/>
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="9"/>
+      <c r="C37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="5">
+        <v>43930</v>
+      </c>
+      <c r="G37" s="5">
+        <v>43935</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J37" s="9">
+        <v>1</v>
+      </c>
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="2"/>
-      <c r="C38" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F38" s="5">
-        <v>43930</v>
+        <v>43967</v>
       </c>
       <c r="G38" s="5">
-        <v>43935</v>
+        <v>43983</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>41</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J38" s="9">
         <v>1</v>
@@ -2006,24 +2002,26 @@
     </row>
     <row r="39" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="D39" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F39" s="5">
-        <v>43967</v>
+        <v>43952</v>
       </c>
       <c r="G39" s="5">
-        <v>43983</v>
+        <v>43998</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="J39" s="9">
         <v>1</v>
@@ -2032,26 +2030,24 @@
     </row>
     <row r="40" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="2"/>
-      <c r="C40" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F40" s="5">
-        <v>43952</v>
+        <v>43971</v>
       </c>
       <c r="G40" s="5">
-        <v>43998</v>
+        <v>44091</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="J40" s="9">
         <v>1</v>
@@ -2062,23 +2058,25 @@
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F41" s="5">
-        <v>43971</v>
-      </c>
-      <c r="G41" s="2"/>
+        <v>43963</v>
+      </c>
+      <c r="G41" s="5">
+        <v>43970</v>
+      </c>
       <c r="H41" s="8" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J41" s="9">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="K41" s="2"/>
     </row>
@@ -2086,22 +2084,22 @@
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F42" s="5">
-        <v>43963</v>
+        <v>43971</v>
       </c>
       <c r="G42" s="5">
-        <v>43970</v>
+        <v>43998</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J42" s="9">
         <v>1</v>
@@ -2110,24 +2108,26 @@
     </row>
     <row r="43" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="D43" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F43" s="5">
-        <v>43971</v>
+        <v>44075</v>
       </c>
       <c r="G43" s="5">
-        <v>43998</v>
+        <v>44075</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J43" s="9">
         <v>1</v>
@@ -2136,21 +2136,27 @@
     </row>
     <row r="44" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="2"/>
-      <c r="C44" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="2">
-        <v>0</v>
+      <c r="F44" s="5">
+        <v>44075</v>
+      </c>
+      <c r="G44" s="5">
+        <v>44076</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44" s="9">
+        <v>1</v>
       </c>
       <c r="K44" s="2"/>
     </row>
@@ -2158,36 +2164,38 @@
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="2">
-        <v>0</v>
+      <c r="F45" s="5">
+        <v>44076</v>
+      </c>
+      <c r="G45" s="5">
+        <v>44076</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J45" s="9">
+        <v>1</v>
       </c>
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
-      <c r="J46" s="2">
-        <v>0</v>
-      </c>
+      <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
@@ -2202,234 +2210,6 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-    </row>
-    <row r="49" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-    </row>
-    <row r="50" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-    </row>
-    <row r="51" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-    </row>
-    <row r="52" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-    </row>
-    <row r="53" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-    </row>
-    <row r="54" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-    </row>
-    <row r="55" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-    </row>
-    <row r="56" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-    </row>
-    <row r="57" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-    </row>
-    <row r="58" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-    </row>
-    <row r="59" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-    </row>
-    <row r="60" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-    </row>
-    <row r="61" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-    </row>
-    <row r="62" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-    </row>
-    <row r="63" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-    </row>
-    <row r="64" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-    </row>
-    <row r="65" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-    </row>
-    <row r="66" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="H2:I2"/>
